--- a/PySteelFraming.tab/TestCode.panel/TestDataToExcel.pushbutton/ExcelTest8.xlsx
+++ b/PySteelFraming.tab/TestCode.panel/TestDataToExcel.pushbutton/ExcelTest8.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="23">
   <si>
     <t>STT</t>
   </si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t>flange-Billet-Inline_00_Nvn-Npd_2018</t>
+  </si>
+  <si>
+    <t>3611a.Column-Connection-Flange -Up-Up-VE1</t>
   </si>
 </sst>
 </file>
@@ -422,16 +425,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R6"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="22.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="56.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="37.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13" style="1" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="1"/>
@@ -503,7 +506,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -564,13 +567,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="C3" s="1">
+        <v>8314836</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>15</v>
@@ -578,8 +581,8 @@
       <c r="F3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>17</v>
+      <c r="G3" s="1">
+        <v>8287724</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>15</v>
@@ -593,11 +596,11 @@
       <c r="K3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="1">
+      <c r="L3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" s="1">
         <v>3</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="N3" s="1">
         <v>10</v>
@@ -620,13 +623,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="C4" s="1">
+        <v>8314836</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>15</v>
@@ -634,8 +637,8 @@
       <c r="F4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>17</v>
+      <c r="G4" s="1">
+        <v>8287724</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>15</v>
@@ -649,11 +652,11 @@
       <c r="K4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="1">
+      <c r="L4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" s="1">
         <v>3</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="N4" s="1">
         <v>10</v>
@@ -668,118 +671,6 @@
         <v>10</v>
       </c>
       <c r="R4" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="1">
-        <v>10000</v>
-      </c>
-      <c r="J5" s="1">
-        <v>12</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L5" s="1">
-        <v>3</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="N5" s="1">
-        <v>10</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="P5" s="1">
-        <v>3</v>
-      </c>
-      <c r="Q5" s="1">
-        <v>10</v>
-      </c>
-      <c r="R5" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="1">
-        <v>10000</v>
-      </c>
-      <c r="J6" s="1">
-        <v>12</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L6" s="1">
-        <v>3</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="N6" s="1">
-        <v>10</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="P6" s="1">
-        <v>3</v>
-      </c>
-      <c r="Q6" s="1">
-        <v>10</v>
-      </c>
-      <c r="R6" s="1">
         <v>12</v>
       </c>
     </row>

--- a/PySteelFraming.tab/TestCode.panel/TestDataToExcel.pushbutton/ExcelTest8.xlsx
+++ b/PySteelFraming.tab/TestCode.panel/TestDataToExcel.pushbutton/ExcelTest8.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
   <si>
     <t>STT</t>
   </si>
@@ -59,6 +59,12 @@
     <t>Plate Column</t>
   </si>
   <si>
+    <t>Flange-Billet-Inline_00_Nvn-Npd_2018</t>
+  </si>
+  <si>
+    <t>flange-Billet-Inline_00_Nvn-Npd_2018</t>
+  </si>
+  <si>
     <t>G.R</t>
   </si>
   <si>
@@ -75,15 +81,6 @@
   </si>
   <si>
     <t>A</t>
-  </si>
-  <si>
-    <t>Flange-Billet-Inline_00_Nvn-Npd_2018</t>
-  </si>
-  <si>
-    <t>flange-Billet-Inline_00_Nvn-Npd_2018</t>
-  </si>
-  <si>
-    <t>3611a.Column-Connection-Flange -Up-Up-VE1</t>
   </si>
 </sst>
 </file>
@@ -425,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -511,25 +508,25 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="I2" s="1">
         <v>10000</v>
@@ -538,19 +535,19 @@
         <v>12</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L2" s="1">
         <v>3</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N2" s="1">
         <v>10</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P2" s="1">
         <v>3</v>
@@ -559,118 +556,6 @@
         <v>10</v>
       </c>
       <c r="R2" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="1">
-        <v>8314836</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="1">
-        <v>8287724</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="1">
-        <v>10000</v>
-      </c>
-      <c r="J3" s="1">
-        <v>12</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M3" s="1">
-        <v>3</v>
-      </c>
-      <c r="N3" s="1">
-        <v>10</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="P3" s="1">
-        <v>3</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>10</v>
-      </c>
-      <c r="R3" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="1">
-        <v>8314836</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="1">
-        <v>8287724</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="1">
-        <v>10000</v>
-      </c>
-      <c r="J4" s="1">
-        <v>12</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M4" s="1">
-        <v>3</v>
-      </c>
-      <c r="N4" s="1">
-        <v>10</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="P4" s="1">
-        <v>3</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>10</v>
-      </c>
-      <c r="R4" s="1">
         <v>12</v>
       </c>
     </row>

--- a/PySteelFraming.tab/TestCode.panel/TestDataToExcel.pushbutton/ExcelTest8.xlsx
+++ b/PySteelFraming.tab/TestCode.panel/TestDataToExcel.pushbutton/ExcelTest8.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="26">
   <si>
     <t>STT</t>
   </si>
@@ -59,12 +59,6 @@
     <t>Plate Column</t>
   </si>
   <si>
-    <t>Flange-Billet-Inline_00_Nvn-Npd_2018</t>
-  </si>
-  <si>
-    <t>flange-Billet-Inline_00_Nvn-Npd_2018</t>
-  </si>
-  <si>
     <t>G.R</t>
   </si>
   <si>
@@ -80,7 +74,25 @@
     <t>C:\Users\nhuan.nguyen\AppData\Roaming\pyRevit\Extensions\PySteelFraming.extension\PySteelFraming.tab\TestCode.panel\TestDataToExcel.pushbutton\ExcelTest1.csv</t>
   </si>
   <si>
-    <t>A</t>
+    <t>367.Column-Concrete-Retangular-Tapper-Up</t>
+  </si>
+  <si>
+    <t>300 x 450mm</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>3611a.Column-Connection-Flange -Up-Up-VE_V02</t>
+  </si>
+  <si>
+    <t>200x200mm 2</t>
+  </si>
+  <si>
+    <t>3612.Column-Billet-Connection-Flange -Up-Down-KP1</t>
+  </si>
+  <si>
+    <t>I-W.215x5, F.185x6</t>
   </si>
 </sst>
 </file>
@@ -422,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -508,54 +520,166 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="H2" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
         <v>12</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" s="1">
+        <v>18</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="1">
         <v>3</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="N2" s="1">
         <v>10</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="O2" s="1">
+        <v>3</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="P2" s="1">
-        <v>3</v>
       </c>
       <c r="Q2" s="1">
         <v>10</v>
       </c>
       <c r="R2" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J3" s="1">
+        <v>12</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="1">
+        <v>3</v>
+      </c>
+      <c r="N3" s="1">
+        <v>10</v>
+      </c>
+      <c r="O3" s="1">
+        <v>3</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>10</v>
+      </c>
+      <c r="R3" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J4" s="1">
+        <v>12</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" s="1">
+        <v>3</v>
+      </c>
+      <c r="N4" s="1">
+        <v>10</v>
+      </c>
+      <c r="O4" s="1">
+        <v>3</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>10</v>
+      </c>
+      <c r="R4" s="1">
         <v>12</v>
       </c>
     </row>

--- a/PySteelFraming.tab/TestCode.panel/TestDataToExcel.pushbutton/ExcelTest8.xlsx
+++ b/PySteelFraming.tab/TestCode.panel/TestDataToExcel.pushbutton/ExcelTest8.xlsx
@@ -4,18 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
   <si>
     <t>STT</t>
   </si>
@@ -50,12 +50,6 @@
     <t>Plate</t>
   </si>
   <si>
-    <t>Gird</t>
-  </si>
-  <si>
-    <t>Plate Thinkness</t>
-  </si>
-  <si>
     <t>Plate Column</t>
   </si>
   <si>
@@ -65,41 +59,65 @@
     <t>EX</t>
   </si>
   <si>
-    <t>4116a.Rafter-Beam-Concrete-Rectangular</t>
-  </si>
-  <si>
-    <t>400 x 800mm</t>
-  </si>
-  <si>
-    <t>C:\Users\nhuan.nguyen\AppData\Roaming\pyRevit\Extensions\PySteelFraming.extension\PySteelFraming.tab\TestCode.panel\TestDataToExcel.pushbutton\ExcelTest1.csv</t>
-  </si>
-  <si>
-    <t>367.Column-Concrete-Retangular-Tapper-Up</t>
-  </si>
-  <si>
-    <t>300 x 450mm</t>
-  </si>
-  <si>
     <t>B</t>
   </si>
   <si>
-    <t>3611a.Column-Connection-Flange -Up-Up-VE_V02</t>
-  </si>
-  <si>
-    <t>200x200mm 2</t>
-  </si>
-  <si>
     <t>3612.Column-Billet-Connection-Flange -Up-Down-KP1</t>
   </si>
   <si>
     <t>I-W.215x5, F.185x6</t>
+  </si>
+  <si>
+    <t>41221.Purlin-C</t>
+  </si>
+  <si>
+    <t>C PURLIN</t>
+  </si>
+  <si>
+    <t>C:\Users\nhuan.nguyen\AppData\Roaming\pyRevit\Extensions\PySteelFraming.extension\PySteelFraming.tab\TestCode.panel\TestDataToExcel.pushbutton\ExcelTest8.xlsx</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Gird_Ver</t>
+  </si>
+  <si>
+    <t>Gird_Hor</t>
+  </si>
+  <si>
+    <t>Length From Gird</t>
+  </si>
+  <si>
+    <t>Slope</t>
+  </si>
+  <si>
+    <t>Move Location Colum Left</t>
+  </si>
+  <si>
+    <t>Move Left Column</t>
+  </si>
+  <si>
+    <t>Move Right Column</t>
+  </si>
+  <si>
+    <t>Move Top Colum</t>
+  </si>
+  <si>
+    <t>Move Bottom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input Parameter </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Label </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,13 +125,46 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -128,11 +179,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -434,29 +492,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="56.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="40.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="37.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13" style="1" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="1"/>
-    <col min="6" max="6" width="44.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="97.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="28.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20.85546875" style="1" customWidth="1"/>
     <col min="8" max="8" width="16.7109375" style="1" customWidth="1"/>
     <col min="9" max="10" width="9.140625" style="1"/>
     <col min="11" max="11" width="21.42578125" style="1" customWidth="1"/>
     <col min="12" max="13" width="9.140625" style="1"/>
     <col min="14" max="14" width="16.140625" style="1" customWidth="1"/>
-    <col min="15" max="16" width="9.140625" style="1"/>
-    <col min="17" max="17" width="13.85546875" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="15" max="15" width="9.140625" style="1"/>
+    <col min="16" max="16" width="15.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="19.140625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="20.7109375" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
@@ -494,25 +554,25 @@
         <v>7</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -520,25 +580,25 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I2" s="1">
         <v>0</v>
@@ -547,157 +607,107 @@
         <v>12</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M2" s="1">
-        <v>3</v>
+        <v>20</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="N2" s="1">
         <v>10</v>
       </c>
-      <c r="O2" s="1">
-        <v>3</v>
+      <c r="O2" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="Q2" s="1">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="R2" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="1">
-        <v>10000</v>
-      </c>
-      <c r="J3" s="1">
-        <v>12</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M3" s="1">
-        <v>3</v>
-      </c>
-      <c r="N3" s="1">
-        <v>10</v>
-      </c>
-      <c r="O3" s="1">
-        <v>3</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>10</v>
-      </c>
-      <c r="R3" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="1">
-        <v>10000</v>
-      </c>
-      <c r="J4" s="1">
-        <v>12</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M4" s="1">
-        <v>3</v>
-      </c>
-      <c r="N4" s="1">
-        <v>10</v>
-      </c>
-      <c r="O4" s="1">
-        <v>3</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>10</v>
-      </c>
-      <c r="R4" s="1">
-        <v>12</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="V8" sqref="V8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" customWidth="1"/>
+    <col min="7" max="7" width="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="2"/>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="6"/>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D6" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D7" s="2"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D16" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:F3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/PySteelFraming.tab/TestCode.panel/TestDataToExcel.pushbutton/ExcelTest8.xlsx
+++ b/PySteelFraming.tab/TestCode.panel/TestDataToExcel.pushbutton/ExcelTest8.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
   <si>
     <t>STT</t>
   </si>
@@ -111,6 +111,15 @@
   </si>
   <si>
     <t xml:space="preserve">Label </t>
+  </si>
+  <si>
+    <t>Move Right</t>
+  </si>
+  <si>
+    <t>Move Left</t>
+  </si>
+  <si>
+    <t>Move Up</t>
   </si>
 </sst>
 </file>
@@ -179,7 +188,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -187,10 +196,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -492,16 +504,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V9" sqref="V9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="40.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="44.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="37.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13" style="1" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="1"/>
@@ -509,17 +521,20 @@
     <col min="7" max="7" width="20.85546875" style="1" customWidth="1"/>
     <col min="8" max="8" width="16.7109375" style="1" customWidth="1"/>
     <col min="9" max="10" width="9.140625" style="1"/>
-    <col min="11" max="11" width="21.42578125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="33.7109375" style="7" customWidth="1"/>
     <col min="12" max="13" width="9.140625" style="1"/>
     <col min="14" max="14" width="16.140625" style="1" customWidth="1"/>
     <col min="15" max="15" width="9.140625" style="1"/>
     <col min="16" max="16" width="15.28515625" style="1" customWidth="1"/>
     <col min="17" max="17" width="19.140625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="20.7109375" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="18" max="19" width="20.7109375" style="1" customWidth="1"/>
+    <col min="20" max="20" width="16.28515625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="25" style="1" customWidth="1"/>
+    <col min="22" max="22" width="17.7109375" style="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -550,7 +565,7 @@
       <c r="J1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="7" t="s">
         <v>7</v>
       </c>
       <c r="L1" s="1" t="s">
@@ -574,12 +589,24 @@
       <c r="R1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="7" t="s">
         <v>15</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -606,7 +633,7 @@
       <c r="J2" s="1">
         <v>12</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L2" s="1" t="s">
@@ -641,8 +668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -663,19 +690,19 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
+      <c r="A2" s="5"/>
       <c r="B2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D6" s="4" t="s">

--- a/PySteelFraming.tab/TestCode.panel/TestDataToExcel.pushbutton/ExcelTest8.xlsx
+++ b/PySteelFraming.tab/TestCode.panel/TestDataToExcel.pushbutton/ExcelTest8.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="46">
   <si>
     <t>STT</t>
   </si>
@@ -62,18 +62,6 @@
     <t>B</t>
   </si>
   <si>
-    <t>3612.Column-Billet-Connection-Flange -Up-Down-KP1</t>
-  </si>
-  <si>
-    <t>I-W.215x5, F.185x6</t>
-  </si>
-  <si>
-    <t>41221.Purlin-C</t>
-  </si>
-  <si>
-    <t>C PURLIN</t>
-  </si>
-  <si>
     <t>C:\Users\nhuan.nguyen\AppData\Roaming\pyRevit\Extensions\PySteelFraming.extension\PySteelFraming.tab\TestCode.panel\TestDataToExcel.pushbutton\ExcelTest8.xlsx</t>
   </si>
   <si>
@@ -120,6 +108,51 @@
   </si>
   <si>
     <t>Move Up</t>
+  </si>
+  <si>
+    <t>3611a.Column-Connection-Flange -Up-Up-VE_V02</t>
+  </si>
+  <si>
+    <t>4112.Rafter-Hincline_V01</t>
+  </si>
+  <si>
+    <t>HINCLINE 4</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>200x200mm</t>
+  </si>
+  <si>
+    <t>12.0</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>10.0</t>
+  </si>
+  <si>
+    <t>20000.0</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>Type 3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>400</t>
+  </si>
+  <si>
+    <t>4000.0</t>
+  </si>
+  <si>
+    <t>6000.0</t>
   </si>
 </sst>
 </file>
@@ -188,7 +221,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -197,11 +230,17 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,10 +543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V2"/>
+  <dimension ref="A1:V14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V9" sqref="V9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -521,7 +560,7 @@
     <col min="7" max="7" width="20.85546875" style="1" customWidth="1"/>
     <col min="8" max="8" width="16.7109375" style="1" customWidth="1"/>
     <col min="9" max="10" width="9.140625" style="1"/>
-    <col min="11" max="11" width="33.7109375" style="7" customWidth="1"/>
+    <col min="11" max="11" width="33.7109375" style="6" customWidth="1"/>
     <col min="12" max="13" width="9.140625" style="1"/>
     <col min="14" max="14" width="16.140625" style="1" customWidth="1"/>
     <col min="15" max="15" width="9.140625" style="1"/>
@@ -565,98 +604,211 @@
       <c r="J1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="6" t="s">
         <v>7</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="S1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" s="7" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="H2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" s="7" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="U1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" s="7" t="s">
+      <c r="G3" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="L3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="1">
-        <v>0</v>
-      </c>
-      <c r="J2" s="1">
-        <v>12</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" s="1" t="s">
+      <c r="M3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="1">
-        <v>10</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="R2" s="1">
-        <v>12</v>
-      </c>
+      <c r="Q3" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="S3" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="T3" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="U3" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="V3" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K4" s="8"/>
+    </row>
+    <row r="5" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K5" s="8"/>
+    </row>
+    <row r="6" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K6" s="8"/>
+    </row>
+    <row r="7" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K7" s="8"/>
+    </row>
+    <row r="8" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K8" s="8"/>
+    </row>
+    <row r="9" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K9" s="8"/>
+    </row>
+    <row r="10" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K10" s="8"/>
+    </row>
+    <row r="11" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K11" s="8"/>
+    </row>
+    <row r="12" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K12" s="8"/>
+    </row>
+    <row r="13" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K13" s="8"/>
+    </row>
+    <row r="14" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K14" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -686,27 +838,27 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
+      <c r="B3" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D6" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -714,12 +866,12 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -727,7 +879,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D16" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/PySteelFraming.tab/TestCode.panel/TestDataToExcel.pushbutton/ExcelTest8.xlsx
+++ b/PySteelFraming.tab/TestCode.panel/TestDataToExcel.pushbutton/ExcelTest8.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="49">
   <si>
     <t>STT</t>
   </si>
@@ -122,9 +122,6 @@
     <t>0</t>
   </si>
   <si>
-    <t>200x200mm</t>
-  </si>
-  <si>
     <t>12.0</t>
   </si>
   <si>
@@ -152,7 +149,19 @@
     <t>4000.0</t>
   </si>
   <si>
-    <t>6000.0</t>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>400.0</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>8000.0</t>
+  </si>
+  <si>
+    <t>1000.0</t>
   </si>
 </sst>
 </file>
@@ -221,7 +230,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -241,6 +250,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -543,10 +555,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V14"/>
+  <dimension ref="A1:V15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -649,7 +661,7 @@
         <v>31</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>12</v>
@@ -667,10 +679,10 @@
         <v>13</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K2" s="8" t="s">
         <v>15</v>
@@ -679,10 +691,10 @@
         <v>16</v>
       </c>
       <c r="M2" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="O2" s="7" t="s">
         <v>16</v>
@@ -691,33 +703,33 @@
         <v>14</v>
       </c>
       <c r="Q2" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="S2" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="R2" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="S2" s="7" t="s">
-        <v>40</v>
-      </c>
       <c r="T2" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U2" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="V2" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:22" s="7" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>31</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>12</v>
@@ -735,10 +747,10 @@
         <v>13</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K3" s="8" t="s">
         <v>15</v>
@@ -747,10 +759,10 @@
         <v>16</v>
       </c>
       <c r="M3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="N3" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="O3" s="7" t="s">
         <v>16</v>
@@ -759,35 +771,250 @@
         <v>14</v>
       </c>
       <c r="Q3" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="S3" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="R3" s="7" t="s">
+      <c r="T3" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="U3" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="V3" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" s="7" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M4" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="S3" s="7" t="s">
+      <c r="N4" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="R4" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="S4" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="T4" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="U4" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="V4" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" s="7" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="T3" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="U3" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="V3" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="K4" s="8"/>
-    </row>
-    <row r="5" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="K5" s="8"/>
+      <c r="D5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="R5" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="S5" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="T5" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="U5" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="V5" s="7" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="6" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="K6" s="8"/>
     </row>
-    <row r="7" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="K7" s="8"/>
+    <row r="7" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="10">
+        <v>1</v>
+      </c>
+      <c r="C7" s="10">
+        <f>B7+1</f>
+        <v>2</v>
+      </c>
+      <c r="D7" s="10">
+        <f>C7+1</f>
+        <v>3</v>
+      </c>
+      <c r="E7" s="10">
+        <f t="shared" ref="E7:V7" si="0">D7+1</f>
+        <v>4</v>
+      </c>
+      <c r="F7" s="10">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G7" s="10">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H7" s="10">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="I7" s="10">
+        <f>H7+1</f>
+        <v>8</v>
+      </c>
+      <c r="J7" s="10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="K7" s="10">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="L7" s="10">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="M7" s="10">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="N7" s="10">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="O7" s="10">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="P7" s="10">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="Q7" s="10">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="R7" s="10">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="S7" s="10">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="T7" s="10">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="U7" s="10">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="V7" s="10">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
     </row>
     <row r="8" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="K8" s="8"/>
@@ -809,6 +1036,11 @@
     </row>
     <row r="14" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="K14" s="8"/>
+    </row>
+    <row r="15" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K15" s="8" t="s">
+        <v>44</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PySteelFraming.tab/TestCode.panel/TestDataToExcel.pushbutton/ExcelTest8.xlsx
+++ b/PySteelFraming.tab/TestCode.panel/TestDataToExcel.pushbutton/ExcelTest8.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="46">
   <si>
     <t>STT</t>
   </si>
@@ -153,15 +153,6 @@
   </si>
   <si>
     <t>400.0</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>8000.0</t>
-  </si>
-  <si>
-    <t>1000.0</t>
   </si>
 </sst>
 </file>
@@ -230,7 +221,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -250,9 +241,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -555,10 +543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V15"/>
+  <dimension ref="A1:V9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -789,256 +777,23 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:22" s="7" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="N4" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="R4" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="S4" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="T4" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="U4" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="V4" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" s="7" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="N5" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="R5" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="S5" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="T5" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="U5" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="V5" s="7" t="s">
-        <v>39</v>
-      </c>
+    <row r="4" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K4" s="8"/>
+    </row>
+    <row r="5" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K5" s="8"/>
     </row>
     <row r="6" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="K6" s="8"/>
     </row>
-    <row r="7" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="10">
-        <v>1</v>
-      </c>
-      <c r="C7" s="10">
-        <f>B7+1</f>
-        <v>2</v>
-      </c>
-      <c r="D7" s="10">
-        <f>C7+1</f>
-        <v>3</v>
-      </c>
-      <c r="E7" s="10">
-        <f t="shared" ref="E7:V7" si="0">D7+1</f>
-        <v>4</v>
-      </c>
-      <c r="F7" s="10">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="G7" s="10">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="H7" s="10">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="I7" s="10">
-        <f>H7+1</f>
-        <v>8</v>
-      </c>
-      <c r="J7" s="10">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="K7" s="10">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="L7" s="10">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="M7" s="10">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="N7" s="10">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="O7" s="10">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="P7" s="10">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="Q7" s="10">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="R7" s="10">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="S7" s="10">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="T7" s="10">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="U7" s="10">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="V7" s="10">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
+    <row r="7" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K7" s="8"/>
     </row>
     <row r="8" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="K8" s="8"/>
     </row>
     <row r="9" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="K9" s="8"/>
-    </row>
-    <row r="10" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="K10" s="8"/>
-    </row>
-    <row r="11" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="K11" s="8"/>
-    </row>
-    <row r="12" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="K12" s="8"/>
-    </row>
-    <row r="13" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="K13" s="8"/>
-    </row>
-    <row r="14" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="K14" s="8"/>
-    </row>
-    <row r="15" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="K15" s="8" t="s">
+      <c r="K9" s="8" t="s">
         <v>44</v>
       </c>
     </row>

--- a/PySteelFraming.tab/TestCode.panel/TestDataToExcel.pushbutton/ExcelTest8.xlsx
+++ b/PySteelFraming.tab/TestCode.panel/TestDataToExcel.pushbutton/ExcelTest8.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
   <si>
     <t>STT</t>
   </si>
@@ -131,28 +131,16 @@
     <t>10.0</t>
   </si>
   <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>Type 3</t>
+  </si>
+  <si>
+    <t>4000.0</t>
+  </si>
+  <si>
     <t>20000.0</t>
-  </si>
-  <si>
-    <t>0.0</t>
-  </si>
-  <si>
-    <t>Type 3</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>400</t>
-  </si>
-  <si>
-    <t>4000.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>400.0</t>
   </si>
 </sst>
 </file>
@@ -543,10 +531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V9"/>
+  <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -649,7 +637,7 @@
         <v>31</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>12</v>
@@ -667,7 +655,7 @@
         <v>13</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J2" s="7" t="s">
         <v>35</v>
@@ -691,110 +679,22 @@
         <v>14</v>
       </c>
       <c r="Q2" s="7" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="R2" s="7" t="s">
         <v>35</v>
       </c>
       <c r="S2" s="7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="T2" s="7" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="U2" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="V2" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" s="7" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="P3" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q3" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="R3" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="S3" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="T3" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="U3" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="V3" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="K4" s="8"/>
-    </row>
-    <row r="5" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="K5" s="8"/>
-    </row>
-    <row r="6" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="K6" s="8"/>
-    </row>
-    <row r="7" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="K7" s="8"/>
-    </row>
-    <row r="8" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="K8" s="8"/>
-    </row>
-    <row r="9" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="K9" s="8" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/PySteelFraming.tab/TestCode.panel/TestDataToExcel.pushbutton/ExcelTest8.xlsx
+++ b/PySteelFraming.tab/TestCode.panel/TestDataToExcel.pushbutton/ExcelTest8.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="42">
   <si>
     <t>STT</t>
   </si>
@@ -531,10 +531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V2"/>
+  <dimension ref="A1:V4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -697,6 +697,142 @@
         <v>38</v>
       </c>
     </row>
+    <row r="3" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="1">
+        <v>4000</v>
+      </c>
+      <c r="J3" s="1">
+        <v>12</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M3" s="1">
+        <v>3</v>
+      </c>
+      <c r="N3" s="1">
+        <v>10</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>20000</v>
+      </c>
+      <c r="R3" s="1">
+        <v>12</v>
+      </c>
+      <c r="S3" s="1">
+        <v>12</v>
+      </c>
+      <c r="T3" s="1">
+        <v>0</v>
+      </c>
+      <c r="U3" s="1">
+        <v>0</v>
+      </c>
+      <c r="V3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="1">
+        <v>4000</v>
+      </c>
+      <c r="J4" s="1">
+        <v>12</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M4" s="1">
+        <v>3</v>
+      </c>
+      <c r="N4" s="1">
+        <v>10</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>20000</v>
+      </c>
+      <c r="R4" s="1">
+        <v>12</v>
+      </c>
+      <c r="S4" s="1">
+        <v>12</v>
+      </c>
+      <c r="T4" s="1">
+        <v>0</v>
+      </c>
+      <c r="U4" s="1">
+        <v>0</v>
+      </c>
+      <c r="V4" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
